--- a/BaoCao_SystemTest_Variant_NoPrice.xlsx
+++ b/BaoCao_SystemTest_Variant_NoPrice.xlsx
@@ -43,17 +43,17 @@
   <si>
     <t>1. Menu SP -&gt; Biến thể
 2. Thêm mới
-3. Nhập Stock=4002
+3. Nhập Stock=2239
 4. Lưu</t>
   </si>
   <si>
-    <t>Stock: 4002</t>
+    <t>Stock: 2239</t>
   </si>
   <si>
     <t>Biến thể mới xuất hiện với đúng số lượng tồn kho</t>
   </si>
   <si>
-    <t>Tìm thấy Stock=4002: true</t>
+    <t>Tìm thấy Stock=2239: true</t>
   </si>
   <si>
     <t>PASS</t>
@@ -65,18 +65,18 @@
     <t>Sửa tồn kho biến thể (Chỉ sửa Stock)</t>
   </si>
   <si>
-    <t>1. Tìm Stock=4002
-2. Sửa thành Stock=4003
+    <t>1. Tìm Stock=2239
+2. Sửa thành Stock=2240
 3. Lưu</t>
   </si>
   <si>
-    <t>Old Stock: 4002 -&gt; New Stock: 4003</t>
+    <t>Old Stock: 2239 -&gt; New Stock: 2240</t>
   </si>
   <si>
     <t>Tồn kho được cập nhật thành công</t>
   </si>
   <si>
-    <t>Tìm thấy Stock mới (4003): true</t>
+    <t>Tìm thấy Stock mới (2240): true</t>
   </si>
   <si>
     <t>ST_VAR_03</t>
@@ -85,18 +85,18 @@
     <t>Xóa biến thể</t>
   </si>
   <si>
-    <t>1. Tìm Stock=4003
+    <t>1. Tìm Stock=2240
 2. Xóa
 3. Check biến mất</t>
   </si>
   <si>
-    <t>Target: Stock 4003</t>
+    <t>Target: Stock 2240</t>
   </si>
   <si>
     <t>Biến thể bị xóa khỏi danh sách</t>
   </si>
   <si>
-    <t>Vẫn tìm thấy Stock=4003: false</t>
+    <t>Vẫn tìm thấy Stock=2240: false</t>
   </si>
 </sst>
 </file>
